--- a/data/summary_22071313.xlsx
+++ b/data/summary_22071313.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +360,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ponto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tair_m</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Presurre_m</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Taxa_Linear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Taxa_quad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FCO2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FO2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ms</t>
         </is>
@@ -401,373 +406,418 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>32.72666666666667</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>986.26</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-0.0197616439265342</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>32.4</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>32.35833333333333</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>986.2972222222222</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-4.781820213005409e-017</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>32.1</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.522222222222222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>32.0414364640884</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>986.3044198895027</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.2187752066115702</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.2635685950413223</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.186560839649915</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>7.516217840422478e-006</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>31.52099447513812</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.7138121546961326</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>32.29116022099447</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>986.2552486187846</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.3153561983471074</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.2753066115702479</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2.161850908835526</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3.890860669836661e-005</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>30.50939226519337</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.629834254143647</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>31.53756906077348</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>986.207182320442</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.2716892561983471</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.216803305785124</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.957376020434457</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.0001357682848194674</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>29.7950276243094</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3.869613259668508</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>31.2878453038674</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>986.1762430939227</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.3379859504132232</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.3187289256198347</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.168805335195084</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2.160115051752417e-017</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>29.5</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>31.33093922651934</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>986.167955801105</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.2552198347107438</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.1621330578512397</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.818725165279032</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2.159791130390374e-017</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>29.36740331491713</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2.766298342541437</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>31.85027624309392</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>986.1093922651934</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.4074330578512397</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.366000826446281</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2.653450845365008</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.0001310996314140366</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>29.37403314917127</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>4.250276243093923</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>31.98950276243094</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>986.1049723756906</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.2560099173553719</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.2157239669421488</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1.814682088400393</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>7.564415486172161e-005</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>29.10883977900553</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>4.703867403314917</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>32.13922651933702</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>986.0337016574586</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.2758909090909091</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.2412471074380165</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.813660580083355</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.0001329022906593924</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>29.2</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2.919337016574586</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>32.24972375690608</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>986.0060773480664</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.3194338842975207</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.3087264462809917</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2.022140176151156</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.0001156086378865306</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>29.2</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>32.18839779005525</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>986.0237569060773</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.4459247933884298</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.3731611570247934</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>3.068746286233642</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.0001532384266234314</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>29.49171270718232</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2.095580110497238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>32.06906077348067</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>986.0160220994475</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.2913619834710744</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.2483595041322314</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2.023358101926216</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>9.571498106358166e-005</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>29.74861878453039</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>4.279005524861878</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>31.72872928176796</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>986.021546961326</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.2177727272727273</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.159605785123967</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.536684226452781</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.0001120984033102908</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>29.58618784530387</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2.845303867403315</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>31.30386740331492</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>986.0469613259669</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.3629190082644628</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.3784545454545454</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2.238355449468776</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2.159718194196877e-017</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>29.5</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.041988950276243</v>
       </c>
     </row>
